--- a/pics/2021-11-26-signed_rank/possible_combs.xlsx
+++ b/pics/2021-11-26-signed_rank/possible_combs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="81">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t>* 1 = 가장 작은 크기 / 6 = 가장 큰 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical value of W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +394,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -834,13 +852,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +1050,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,55 +1122,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1354,9 +1515,11 @@
     <col min="19" max="20" width="12.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1366,29 +1529,29 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35"/>
-      <c r="C2" s="32" t="s">
+    <row r="2" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="50"/>
+      <c r="C2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="26"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="26"/>
     </row>
-    <row r="3" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
+    <row r="3" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51"/>
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -1431,17 +1594,26 @@
       <c r="P3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="37" t="s">
+      <c r="R3" s="37"/>
+      <c r="S3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="43"/>
-    </row>
-    <row r="4" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38" t="s">
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
+      <c r="Y3" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" s="63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1486,27 +1658,36 @@
       <c r="P4" s="28">
         <v>-9</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="45" t="s">
+      <c r="S4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="41" t="s">
+      <c r="V4" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
+      <c r="Y4" s="64">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="60">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="65">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="54"/>
       <c r="C5" s="20" t="s">
         <v>1</v>
       </c>
@@ -1549,28 +1730,37 @@
       <c r="P5" s="29">
         <v>-7</v>
       </c>
-      <c r="R5" s="47">
-        <v>1</v>
-      </c>
-      <c r="S5" s="52">
+      <c r="R5" s="38">
+        <v>1</v>
+      </c>
+      <c r="S5" s="41">
         <v>1600</v>
       </c>
-      <c r="T5" s="53">
+      <c r="T5" s="42">
         <v>1490</v>
       </c>
-      <c r="U5" s="53">
+      <c r="U5" s="42">
         <f>T5-S5</f>
         <v>-110</v>
       </c>
-      <c r="V5" s="53">
+      <c r="V5" s="42">
         <v>5</v>
       </c>
-      <c r="W5" s="54">
+      <c r="W5" s="43">
         <v>-5</v>
       </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
+      <c r="Y5" s="70">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="59">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="67">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B6" s="54"/>
       <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
@@ -1613,28 +1803,35 @@
       <c r="P6" s="29">
         <v>-5</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="38">
         <v>2</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="41">
         <v>1850</v>
       </c>
-      <c r="T6" s="53">
+      <c r="T6" s="42">
         <v>1300</v>
       </c>
-      <c r="U6" s="53">
+      <c r="U6" s="42">
         <f t="shared" ref="U6:U10" si="0">T6-S6</f>
         <v>-550</v>
       </c>
-      <c r="V6" s="53">
+      <c r="V6" s="42">
         <v>6</v>
       </c>
-      <c r="W6" s="54">
+      <c r="W6" s="43">
         <v>-6</v>
       </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="59">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="67">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="54"/>
       <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
@@ -1677,28 +1874,37 @@
       <c r="P7" s="29">
         <v>-3</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="38">
         <v>3</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="41">
         <v>1300</v>
       </c>
-      <c r="T7" s="53">
+      <c r="T7" s="42">
         <v>1400</v>
       </c>
-      <c r="U7" s="53">
+      <c r="U7" s="42">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="42">
         <v>4</v>
       </c>
-      <c r="W7" s="54">
+      <c r="W7" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="39"/>
+      <c r="Y7" s="66">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="59">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="67">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="54"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
       </c>
@@ -1741,28 +1947,37 @@
       <c r="P8" s="29">
         <v>-3</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="38">
         <v>4</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="41">
         <v>1500</v>
       </c>
-      <c r="T8" s="53">
+      <c r="T8" s="42">
         <v>1410</v>
       </c>
-      <c r="U8" s="53">
+      <c r="U8" s="42">
         <f t="shared" si="0"/>
         <v>-90</v>
       </c>
-      <c r="V8" s="53">
+      <c r="V8" s="42">
         <v>3</v>
       </c>
-      <c r="W8" s="54">
+      <c r="W8" s="43">
         <v>-3</v>
       </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
+      <c r="Y8" s="70">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="59">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="67">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="54"/>
       <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
@@ -1805,28 +2020,35 @@
       <c r="P9" s="29">
         <v>-1</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="38">
         <v>5</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="41">
         <v>1400</v>
       </c>
-      <c r="T9" s="53">
+      <c r="T9" s="42">
         <v>1350</v>
       </c>
-      <c r="U9" s="53">
+      <c r="U9" s="42">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="42">
         <v>2</v>
       </c>
-      <c r="W9" s="54">
+      <c r="W9" s="43">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="39"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="59">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="67">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="54"/>
       <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
@@ -1869,28 +2091,35 @@
       <c r="P10" s="29">
         <v>1</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="39">
         <v>6</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="44">
         <v>1010</v>
       </c>
-      <c r="T10" s="56">
+      <c r="T10" s="45">
         <v>1000</v>
       </c>
-      <c r="U10" s="56">
+      <c r="U10" s="45">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="V10" s="56">
-        <v>1</v>
-      </c>
-      <c r="W10" s="57">
+      <c r="V10" s="45">
+        <v>1</v>
+      </c>
+      <c r="W10" s="46">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="39"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="68">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="69">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="54"/>
       <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
@@ -1933,19 +2162,22 @@
       <c r="P11" s="29">
         <v>3</v>
       </c>
-      <c r="R11" s="49" t="s">
+      <c r="R11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51" t="s">
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="39"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="54"/>
       <c r="C12" s="20" t="s">
         <v>17</v>
       </c>
@@ -1990,8 +2222,8 @@
       </c>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="54"/>
       <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
@@ -2035,8 +2267,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="54"/>
       <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
@@ -2080,8 +2312,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="54"/>
       <c r="C15" s="20" t="s">
         <v>23</v>
       </c>
@@ -2125,8 +2357,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="39"/>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="54"/>
       <c r="C16" s="20" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +2403,7 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="20" t="s">
         <v>27</v>
       </c>
@@ -2216,7 +2448,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="39"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="20" t="s">
         <v>29</v>
       </c>
@@ -2261,7 +2493,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="39"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="20" t="s">
         <v>31</v>
       </c>
@@ -2306,7 +2538,7 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="39"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="20" t="s">
         <v>33</v>
       </c>
@@ -2351,7 +2583,7 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="39"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="20" t="s">
         <v>35</v>
       </c>
@@ -2396,7 +2628,7 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="39"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="20" t="s">
         <v>37</v>
       </c>
@@ -2441,7 +2673,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="39"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
@@ -2486,7 +2718,7 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="20" t="s">
         <v>41</v>
       </c>
@@ -2531,7 +2763,7 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="39"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="20" t="s">
         <v>43</v>
       </c>
@@ -2576,7 +2808,7 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="20" t="s">
         <v>45</v>
       </c>
@@ -2621,7 +2853,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="39"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="20" t="s">
         <v>47</v>
       </c>
@@ -2666,7 +2898,7 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="39"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="20" t="s">
         <v>49</v>
       </c>
@@ -2711,7 +2943,7 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="39"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="20" t="s">
         <v>51</v>
       </c>
@@ -2756,7 +2988,7 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="39"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="20" t="s">
         <v>53</v>
       </c>
@@ -2801,7 +3033,7 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="39"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="20" t="s">
         <v>55</v>
       </c>
@@ -2846,7 +3078,7 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="39"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="20" t="s">
         <v>57</v>
       </c>
@@ -2891,7 +3123,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="39"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="20" t="s">
         <v>59</v>
       </c>
@@ -2936,7 +3168,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="39"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="20" t="s">
         <v>61</v>
       </c>
@@ -2981,7 +3213,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="40"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="21" t="s">
         <v>63</v>
       </c>
@@ -3835,7 +4067,9 @@
       <c r="Q78" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Y8:Y10"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="J2:O2"/>

--- a/pics/2021-11-26-signed_rank/possible_combs.xlsx
+++ b/pics/2021-11-26-signed_rank/possible_combs.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\angeloyeo.github.io\pics\2021-11-26-signed_rank\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77CD7D2-017A-49CC-885F-CF35AB875B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="14595"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="KO" sheetId="1" r:id="rId1"/>
+    <sheet name="EN" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="92">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,23 +365,58 @@
     <t>p-value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>signed rank sum</t>
+  </si>
+  <si>
+    <t>Possible
+Combinat
+-ions</t>
+  </si>
+  <si>
+    <t>subjects</t>
+  </si>
+  <si>
+    <t>Before Treatment</t>
+  </si>
+  <si>
+    <t>After Treatment</t>
+  </si>
+  <si>
+    <t>Amount of urine per day (mL/d)</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>Signed Rank of Diff</t>
+  </si>
+  <si>
+    <t>* 1 = Smallest / 6 = Largest</t>
+  </si>
+  <si>
+    <t>Rank of diff*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -369,7 +424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -953,44 +1008,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,10 +1036,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1011,25 +1048,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,6 +1132,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,59 +1195,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1207,12 +1246,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1254,7 +1296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1287,9 +1329,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1322,6 +1381,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1497,2574 +1573,1854 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Y3" sqref="Y3:AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="19" max="20" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9"/>
+    <col min="2" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9"/>
+    <col min="16" max="16" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9"/>
+    <col min="19" max="20" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50"/>
-      <c r="C2" s="47" t="s">
+    <row r="1" spans="2:27" ht="15" thickBot="1"/>
+    <row r="2" spans="2:27" ht="15" thickBot="1">
+      <c r="B2" s="54"/>
+      <c r="C2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="52" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51"/>
-      <c r="C3" s="18">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="2:27" ht="15" thickBot="1">
+      <c r="B3" s="55"/>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="7">
         <v>4</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="7">
         <v>5</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="16">
         <v>6</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="14">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
         <v>2</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="7">
         <v>3</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="7">
         <v>4</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="7">
         <v>5</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="16">
         <v>6</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="37"/>
-      <c r="S3" s="52" t="s">
+      <c r="R3" s="31"/>
+      <c r="S3" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="34"/>
-      <c r="Y3" s="61" t="s">
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+      <c r="Y3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="Z3" s="62" t="s">
+      <c r="Z3" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="AA3" s="63" t="s">
+      <c r="AA3" s="43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+    <row r="4" spans="2:27" ht="16.5" customHeight="1">
+      <c r="B4" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28">
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
         <v>-21</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="22">
         <v>-9</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="13">
         <v>5</v>
       </c>
-      <c r="Z4" s="60">
+      <c r="Z4" s="4">
         <v>15</v>
       </c>
-      <c r="AA4" s="65">
+      <c r="AA4" s="44">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="2:27">
+      <c r="B5" s="58"/>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="23">
         <v>-19</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="23">
         <v>-7</v>
       </c>
-      <c r="R5" s="38">
-        <v>1</v>
-      </c>
-      <c r="S5" s="41">
+      <c r="R5" s="32">
+        <v>1</v>
+      </c>
+      <c r="S5" s="35">
         <v>1600</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="36">
         <v>1490</v>
       </c>
-      <c r="U5" s="42">
+      <c r="U5" s="36">
         <f>T5-S5</f>
         <v>-110</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="36">
         <v>5</v>
       </c>
-      <c r="W5" s="43">
+      <c r="W5" s="37">
         <v>-5</v>
       </c>
-      <c r="Y5" s="70">
+      <c r="Y5" s="47">
         <v>6</v>
       </c>
-      <c r="Z5" s="59">
+      <c r="Z5" s="2">
         <v>21</v>
       </c>
-      <c r="AA5" s="67">
+      <c r="AA5" s="45">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="20" t="s">
+    <row r="6" spans="2:27">
+      <c r="B6" s="58"/>
+      <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="23">
         <v>-17</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="23">
         <v>-5</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="32">
         <v>2</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="35">
         <v>1850</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="36">
         <v>1300</v>
       </c>
-      <c r="U6" s="42">
+      <c r="U6" s="36">
         <f t="shared" ref="U6:U10" si="0">T6-S6</f>
         <v>-550</v>
       </c>
-      <c r="V6" s="42">
+      <c r="V6" s="36">
         <v>6</v>
       </c>
-      <c r="W6" s="43">
+      <c r="W6" s="37">
         <v>-6</v>
       </c>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="59">
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="2">
         <v>19</v>
       </c>
-      <c r="AA6" s="67">
+      <c r="AA6" s="45">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="2:27">
+      <c r="B7" s="58"/>
+      <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="23">
         <v>-15</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="23">
         <v>-3</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="32">
         <v>3</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="35">
         <v>1300</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="36">
         <v>1400</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="36">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="36">
         <v>4</v>
       </c>
-      <c r="W7" s="43">
+      <c r="W7" s="37">
         <v>4</v>
       </c>
-      <c r="Y7" s="66">
+      <c r="Y7" s="14">
         <v>7</v>
       </c>
-      <c r="Z7" s="59">
+      <c r="Z7" s="2">
         <v>28</v>
       </c>
-      <c r="AA7" s="67">
+      <c r="AA7" s="45">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="54"/>
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="2:27">
+      <c r="B8" s="58"/>
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="23">
         <v>-15</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="23">
         <v>-3</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="32">
         <v>4</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="35">
         <v>1500</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="36">
         <v>1410</v>
       </c>
-      <c r="U8" s="42">
+      <c r="U8" s="36">
         <f t="shared" si="0"/>
         <v>-90</v>
       </c>
-      <c r="V8" s="42">
+      <c r="V8" s="36">
         <v>3</v>
       </c>
-      <c r="W8" s="43">
+      <c r="W8" s="37">
         <v>-3</v>
       </c>
-      <c r="Y8" s="70">
+      <c r="Y8" s="47">
         <v>8</v>
       </c>
-      <c r="Z8" s="59">
+      <c r="Z8" s="2">
         <v>24</v>
       </c>
-      <c r="AA8" s="67">
+      <c r="AA8" s="45">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="54"/>
-      <c r="C9" s="20" t="s">
+    <row r="9" spans="2:27">
+      <c r="B9" s="58"/>
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="23">
         <v>-13</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="23">
         <v>-1</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="32">
         <v>5</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="35">
         <v>1400</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="36">
         <v>1350</v>
       </c>
-      <c r="U9" s="42">
+      <c r="U9" s="36">
         <f t="shared" si="0"/>
         <v>-50</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="36">
         <v>2</v>
       </c>
-      <c r="W9" s="43">
+      <c r="W9" s="37">
         <v>-2</v>
       </c>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="59">
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="2">
         <v>32</v>
       </c>
-      <c r="AA9" s="67">
+      <c r="AA9" s="45">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="54"/>
-      <c r="C10" s="20" t="s">
+    <row r="10" spans="2:27" ht="15" thickBot="1">
+      <c r="B10" s="58"/>
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="23">
         <v>-11</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="29">
-        <v>1</v>
-      </c>
-      <c r="R10" s="39">
+      <c r="P10" s="23">
+        <v>1</v>
+      </c>
+      <c r="R10" s="33">
         <v>6</v>
       </c>
-      <c r="S10" s="44">
+      <c r="S10" s="38">
         <v>1010</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="39">
         <v>1000</v>
       </c>
-      <c r="U10" s="45">
+      <c r="U10" s="39">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="V10" s="45">
-        <v>1</v>
-      </c>
-      <c r="W10" s="46">
+      <c r="V10" s="39">
+        <v>1</v>
+      </c>
+      <c r="W10" s="40">
         <v>-1</v>
       </c>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="68">
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="5">
         <v>28</v>
       </c>
-      <c r="AA10" s="69">
+      <c r="AA10" s="46">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="54"/>
-      <c r="C11" s="20" t="s">
+    <row r="11" spans="2:27" ht="15" thickBot="1">
+      <c r="B11" s="58"/>
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="23">
         <v>-9</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="23">
         <v>3</v>
       </c>
-      <c r="R11" s="56" t="s">
+      <c r="R11" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="40" t="s">
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="20" t="s">
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="58"/>
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="23">
         <v>-13</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="24" t="s">
+      <c r="O12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="23">
         <v>-1</v>
       </c>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="54"/>
-      <c r="C13" s="20" t="s">
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="58"/>
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="23">
         <v>-11</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="54"/>
-      <c r="C14" s="20" t="s">
+      <c r="P13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="58"/>
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="23">
         <v>-9</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="20" t="s">
+    <row r="15" spans="2:27">
+      <c r="B15" s="58"/>
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="23">
         <v>-7</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="54"/>
-      <c r="C16" s="20" t="s">
+    <row r="16" spans="2:27">
+      <c r="B16" s="58"/>
+      <c r="C16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="23">
         <v>-7</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="54"/>
-      <c r="C17" s="20" t="s">
+    <row r="17" spans="2:16">
+      <c r="B17" s="58"/>
+      <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="23">
         <v>-5</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="54"/>
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="2:16">
+      <c r="B18" s="58"/>
+      <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="23">
         <v>-3</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="O18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="54"/>
-      <c r="C19" s="20" t="s">
+    <row r="19" spans="2:16">
+      <c r="B19" s="58"/>
+      <c r="C19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="23">
         <v>-1</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="2:16">
+      <c r="B20" s="58"/>
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="23">
         <v>-11</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P20" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="20" t="s">
+      <c r="N20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="58"/>
+      <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="23">
         <v>-9</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P21" s="29">
+      <c r="N21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="20" t="s">
+    <row r="22" spans="2:16">
+      <c r="B22" s="58"/>
+      <c r="C22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="23">
         <v>-7</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" s="29">
+      <c r="N22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="20" t="s">
+    <row r="23" spans="2:16">
+      <c r="B23" s="58"/>
+      <c r="C23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="23">
         <v>-5</v>
       </c>
-      <c r="J23" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="J23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P23" s="29">
+      <c r="N23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="20" t="s">
+    <row r="24" spans="2:16">
+      <c r="B24" s="58"/>
+      <c r="C24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="23">
         <v>-5</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3" t="s">
+      <c r="L24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O24" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" s="29">
+      <c r="N24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="23">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="54"/>
-      <c r="C25" s="20" t="s">
+    <row r="25" spans="2:16">
+      <c r="B25" s="58"/>
+      <c r="C25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="24" t="s">
+      <c r="H25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="23">
         <v>-3</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="J25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3" t="s">
+      <c r="L25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P25" s="29">
+      <c r="N25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="20" t="s">
+    <row r="26" spans="2:16">
+      <c r="B26" s="58"/>
+      <c r="C26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="23">
         <v>-1</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3" t="s">
+      <c r="K26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O26" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P26" s="29">
+      <c r="N26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="54"/>
-      <c r="C27" s="20" t="s">
+    <row r="27" spans="2:16">
+      <c r="B27" s="58"/>
+      <c r="C27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3" t="s">
+      <c r="I27" s="23">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O27" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P27" s="29">
+      <c r="N27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="54"/>
-      <c r="C28" s="20" t="s">
+    <row r="28" spans="2:16">
+      <c r="B28" s="58"/>
+      <c r="C28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="23">
         <v>-3</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P28" s="29">
+      <c r="M28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="54"/>
-      <c r="C29" s="20" t="s">
+    <row r="29" spans="2:16">
+      <c r="B29" s="58"/>
+      <c r="C29" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="23">
         <v>-1</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O29" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P29" s="29">
+      <c r="M29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="20" t="s">
+    <row r="30" spans="2:16">
+      <c r="B30" s="58"/>
+      <c r="C30" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="29">
-        <v>1</v>
-      </c>
-      <c r="J30" s="16" t="s">
+      <c r="I30" s="23">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3" t="s">
+      <c r="K30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P30" s="29">
+      <c r="M30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="23">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="54"/>
-      <c r="C31" s="20" t="s">
+    <row r="31" spans="2:16">
+      <c r="B31" s="58"/>
+      <c r="C31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="23">
         <v>3</v>
       </c>
-      <c r="J31" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="J31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O31" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P31" s="29">
+      <c r="M31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="23">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="20" t="s">
+    <row r="32" spans="2:16">
+      <c r="B32" s="58"/>
+      <c r="C32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="23">
         <v>3</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P32" s="29">
+      <c r="L32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="23">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="20" t="s">
+    <row r="33" spans="2:16">
+      <c r="B33" s="58"/>
+      <c r="C33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="23">
         <v>5</v>
       </c>
-      <c r="J33" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3" t="s">
+      <c r="J33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P33" s="29">
+      <c r="L33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="23">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="54"/>
-      <c r="C34" s="20" t="s">
+    <row r="34" spans="2:16">
+      <c r="B34" s="58"/>
+      <c r="C34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="23">
         <v>7</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P34" s="29">
+      <c r="K34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="23">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="55"/>
-      <c r="C35" s="21" t="s">
+    <row r="35" spans="2:16" ht="15" thickBot="1">
+      <c r="B35" s="59"/>
+      <c r="C35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="24">
         <v>9</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="M35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="31" t="s">
+      <c r="O35" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="P35" s="30">
+      <c r="P35" s="24">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-    </row>
-    <row r="43" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-    </row>
-    <row r="45" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-    </row>
-    <row r="46" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-    </row>
-    <row r="47" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-    </row>
-    <row r="48" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-    </row>
-    <row r="49" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-    </row>
-    <row r="50" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-    </row>
-    <row r="51" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-    </row>
-    <row r="52" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-    </row>
-    <row r="53" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-    </row>
-    <row r="54" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-    </row>
-    <row r="55" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-    </row>
-    <row r="56" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-    </row>
-    <row r="57" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-    </row>
-    <row r="58" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-    </row>
-    <row r="59" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-    </row>
-    <row r="60" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-    </row>
-    <row r="61" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-    </row>
-    <row r="62" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-    </row>
-    <row r="63" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-    </row>
-    <row r="64" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-    </row>
-    <row r="65" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-    </row>
-    <row r="66" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-    </row>
-    <row r="67" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-    </row>
-    <row r="68" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-    </row>
-    <row r="69" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-    </row>
-    <row r="70" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-    </row>
-    <row r="71" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-    </row>
-    <row r="72" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-    </row>
-    <row r="73" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-    </row>
-    <row r="74" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-    </row>
-    <row r="75" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-    </row>
-    <row r="76" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-    </row>
-    <row r="77" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-    </row>
-    <row r="78" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
+    <row r="36" spans="2:16">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4124,25 +3480,1930 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A84CE6B-1460-4710-BB29-274BA9FA8FAD}">
+  <dimension ref="B1:AA67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="15" thickBot="1"/>
+    <row r="2" spans="2:27" ht="15" thickBot="1">
+      <c r="B2" s="54"/>
+      <c r="C2" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="2:27" ht="15" thickBot="1">
+      <c r="B3" s="55"/>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16">
+        <v>6</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>3</v>
+      </c>
+      <c r="M3" s="7">
+        <v>4</v>
+      </c>
+      <c r="N3" s="7">
+        <v>5</v>
+      </c>
+      <c r="O3" s="16">
+        <v>6</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="31"/>
+      <c r="S3" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+      <c r="Y3" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="16.5" customHeight="1">
+      <c r="B4" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <v>-21</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="22">
+        <v>-9</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="44">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5" s="58"/>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
+        <v>-19</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="23">
+        <v>-7</v>
+      </c>
+      <c r="R5" s="32">
+        <v>1</v>
+      </c>
+      <c r="S5" s="35">
+        <v>1600</v>
+      </c>
+      <c r="T5" s="36">
+        <v>1490</v>
+      </c>
+      <c r="U5" s="36">
+        <f>T5-S5</f>
+        <v>-110</v>
+      </c>
+      <c r="V5" s="36">
+        <v>5</v>
+      </c>
+      <c r="W5" s="37">
+        <v>-5</v>
+      </c>
+      <c r="Y5" s="47">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="45">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="58"/>
+      <c r="C6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23">
+        <v>-17</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="23">
+        <v>-5</v>
+      </c>
+      <c r="R6" s="32">
+        <v>2</v>
+      </c>
+      <c r="S6" s="35">
+        <v>1850</v>
+      </c>
+      <c r="T6" s="36">
+        <v>1300</v>
+      </c>
+      <c r="U6" s="36">
+        <f t="shared" ref="U6:U10" si="0">T6-S6</f>
+        <v>-550</v>
+      </c>
+      <c r="V6" s="36">
+        <v>6</v>
+      </c>
+      <c r="W6" s="37">
+        <v>-6</v>
+      </c>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="45">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="58"/>
+      <c r="C7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="23">
+        <v>-15</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="23">
+        <v>-3</v>
+      </c>
+      <c r="R7" s="32">
+        <v>3</v>
+      </c>
+      <c r="S7" s="35">
+        <v>1300</v>
+      </c>
+      <c r="T7" s="36">
+        <v>1400</v>
+      </c>
+      <c r="U7" s="36">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="V7" s="36">
+        <v>4</v>
+      </c>
+      <c r="W7" s="37">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="45">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="58"/>
+      <c r="C8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23">
+        <v>-15</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="23">
+        <v>-3</v>
+      </c>
+      <c r="R8" s="32">
+        <v>4</v>
+      </c>
+      <c r="S8" s="35">
+        <v>1500</v>
+      </c>
+      <c r="T8" s="36">
+        <v>1410</v>
+      </c>
+      <c r="U8" s="36">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="V8" s="36">
+        <v>3</v>
+      </c>
+      <c r="W8" s="37">
+        <v>-3</v>
+      </c>
+      <c r="Y8" s="47">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="45">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="58"/>
+      <c r="C9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23">
+        <v>-13</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="23">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="32">
+        <v>5</v>
+      </c>
+      <c r="S9" s="35">
+        <v>1400</v>
+      </c>
+      <c r="T9" s="36">
+        <v>1350</v>
+      </c>
+      <c r="U9" s="36">
+        <f t="shared" si="0"/>
+        <v>-50</v>
+      </c>
+      <c r="V9" s="36">
+        <v>2</v>
+      </c>
+      <c r="W9" s="37">
+        <v>-2</v>
+      </c>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="2">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="45">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="15" thickBot="1">
+      <c r="B10" s="58"/>
+      <c r="C10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
+        <v>-11</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="23">
+        <v>1</v>
+      </c>
+      <c r="R10" s="33">
+        <v>6</v>
+      </c>
+      <c r="S10" s="38">
+        <v>1010</v>
+      </c>
+      <c r="T10" s="39">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="39">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="V10" s="39">
+        <v>1</v>
+      </c>
+      <c r="W10" s="40">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="5">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="46">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="15" thickBot="1">
+      <c r="B11" s="58"/>
+      <c r="C11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="23">
+        <v>-9</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="23">
+        <v>3</v>
+      </c>
+      <c r="R11" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="58"/>
+      <c r="C12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
+        <v>-13</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
+      <c r="B13" s="58"/>
+      <c r="C13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
+        <v>-11</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="58"/>
+      <c r="C14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
+        <v>-9</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="58"/>
+      <c r="C15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="23">
+        <v>-7</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="58"/>
+      <c r="C16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23">
+        <v>-7</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="58"/>
+      <c r="C17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
+        <v>-5</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="58"/>
+      <c r="C18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
+        <v>-3</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="58"/>
+      <c r="C19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="58"/>
+      <c r="C20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <v>-11</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P20" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="58"/>
+      <c r="C21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
+        <v>-9</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="58"/>
+      <c r="C22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <v>-7</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="58"/>
+      <c r="C23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="23">
+        <v>-5</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="58"/>
+      <c r="C24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="23">
+        <v>-5</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="58"/>
+      <c r="C25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="23">
+        <v>-3</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="58"/>
+      <c r="C26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="58"/>
+      <c r="C27" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="23">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="58"/>
+      <c r="C28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="23">
+        <v>-3</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="58"/>
+      <c r="C29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="23">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="58"/>
+      <c r="C30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="58"/>
+      <c r="C31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="23">
+        <v>3</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="58"/>
+      <c r="C32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="23">
+        <v>3</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="58"/>
+      <c r="C33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="23">
+        <v>5</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="58"/>
+      <c r="C34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="23">
+        <v>7</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="15" thickBot="1">
+      <c r="B35" s="59"/>
+      <c r="C35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
+        <v>9</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B4:B35"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="R11:V11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{B519FD00-D17C-450B-BBCB-B29EAD0C1CF8}">
+            <xm:f>NOT(ISERROR(SEARCH("+",C4)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C4:H67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{4732F920-E74B-4378-8FE1-96CF51446952}">
+            <xm:f>NOT(ISERROR(SEARCH("+",J4)))</xm:f>
+            <xm:f>"+"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J4:O35</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
